--- a/2_Formulas_Functions/4_Math_Function.xlsx
+++ b/2_Formulas_Functions/4_Math_Function.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB42523-A270-4501-ABCB-D9E496883660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22428BAA-E524-435C-94EC-3AAA017FD44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
-    <sheet name="SUM" sheetId="2" r:id="rId2"/>
-    <sheet name="SUMIF" sheetId="3" r:id="rId3"/>
-    <sheet name="SUMIFS" sheetId="4" r:id="rId4"/>
+    <sheet name="SUMs" sheetId="2" r:id="rId2"/>
+    <sheet name="COUNT" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="40">
   <si>
     <t>Data Analyst</t>
   </si>
@@ -131,7 +130,34 @@
     <t>Total Salary for Job Postings in New York</t>
   </si>
   <si>
-    <t>Total Salary for Senior-level Positions in San Francisco</t>
+    <t>Total Salary for Senior-level Positions in New York</t>
+  </si>
+  <si>
+    <t>All Jobs</t>
+  </si>
+  <si>
+    <t>COUNTIF</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>SUMIF</t>
+  </si>
+  <si>
+    <t>SUMIFS</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>COUNTIFS</t>
+  </si>
+  <si>
+    <t>New York Jobs</t>
+  </si>
+  <si>
+    <t>Data Analyst Jobs in New York</t>
   </si>
 </sst>
 </file>
@@ -736,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CAE6D-E070-4562-86D5-8F8141367035}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +776,8 @@
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="10" max="10" width="80.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="46" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -773,9 +800,15 @@
         <v>8</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -799,6 +832,12 @@
       <c r="H2" s="5" t="s">
         <v>28</v>
       </c>
+      <c r="I2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
@@ -822,6 +861,14 @@
       <c r="H3" s="7">
         <f>SUM(E2:E10)</f>
         <v>1038000</v>
+      </c>
+      <c r="I3" s="7">
+        <f>SUMIF(D2:D10, "New York", E2:E10)</f>
+        <v>475000</v>
+      </c>
+      <c r="J3" s="7">
+        <f>SUMIFS(E2:E10, D2:D10, "New York", F2:F10, "Senior")</f>
+        <v>115000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1003,282 +1050,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB274079-C48D-4089-8E8C-9AFF0274003D}">
-  <dimension ref="A1:J21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" customWidth="1"/>
-    <col min="8" max="8" width="43.140625" customWidth="1"/>
-    <col min="9" max="9" width="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="80.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6">
-        <v>120000</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6">
-        <v>90000</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="7">
-        <f>SUMIF(D2:D10, "New York", E2:E10)</f>
-        <v>475000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6">
-        <v>115000</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6">
-        <v>125000</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6">
-        <v>130000</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="6">
-        <v>95000</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6">
-        <v>110000</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="6">
-        <v>118000</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="6">
-        <v>135000</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07523D37-B360-4F9E-9C0E-00BA173DC886}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,8 +1066,9 @@
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="48.85546875" customWidth="1"/>
-    <col min="10" max="10" width="80.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -1314,9 +1091,15 @@
         <v>8</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -1338,7 +1121,13 @@
         <v>12</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1360,9 +1149,17 @@
       <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="7">
-        <f>SUMIFS(E2:E10, D2:D10, "San Francisco", F2:F10, "Senior")</f>
-        <v>260000</v>
+      <c r="H3" s="8">
+        <f>COUNT(E:E)</f>
+        <v>9</v>
+      </c>
+      <c r="I3" s="8">
+        <f>COUNTIF(D:D, "New York")</f>
+        <v>4</v>
+      </c>
+      <c r="J3" s="8">
+        <f>COUNTIFS(B2:B10,"Data Analyst",D2:D10, "New York")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">

--- a/2_Formulas_Functions/4_Math_Function.xlsx
+++ b/2_Formulas_Functions/4_Math_Function.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22428BAA-E524-435C-94EC-3AAA017FD44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B736A71-8D98-462C-AC4C-72E7CED3F8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
-    <sheet name="SUMs" sheetId="2" r:id="rId2"/>
-    <sheet name="COUNT" sheetId="4" r:id="rId3"/>
+    <sheet name="COUNT" sheetId="4" r:id="rId2"/>
+    <sheet name="SUMs" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="43">
   <si>
     <t>Data Analyst</t>
   </si>
@@ -127,12 +127,6 @@
     <t>Overall Salary Expenses</t>
   </si>
   <si>
-    <t>Total Salary for Job Postings in New York</t>
-  </si>
-  <si>
-    <t>Total Salary for Senior-level Positions in New York</t>
-  </si>
-  <si>
     <t>All Jobs</t>
   </si>
   <si>
@@ -154,10 +148,25 @@
     <t>COUNTIFS</t>
   </si>
   <si>
-    <t>New York Jobs</t>
-  </si>
-  <si>
-    <t>Data Analyst Jobs in New York</t>
+    <t>JP010</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Data Analyst Jobs in San Fransisco</t>
+  </si>
+  <si>
+    <t>San Fransisco Jobs</t>
+  </si>
+  <si>
+    <t>Total Salary for Data Analyst Positions in San Fransisco</t>
+  </si>
+  <si>
+    <t>Total Salary for Job Postings in San Francisco</t>
+  </si>
+  <si>
+    <t>Total Salary for Data Analyst Positions in Chicago</t>
   </si>
 </sst>
 </file>
@@ -533,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E10"/>
+      <selection activeCell="A2" sqref="A2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +592,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E2" s="6">
         <v>120000</v>
@@ -637,7 +646,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
@@ -660,7 +669,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>11</v>
@@ -686,7 +695,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="6">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>16</v>
@@ -729,7 +738,7 @@
         <v>118000</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -750,6 +759,26 @@
       </c>
       <c r="F10" s="4" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="6">
+        <v>95000</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -759,11 +788,319 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07523D37-B360-4F9E-9C0E-00BA173DC886}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="31.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="6">
+        <v>120000</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6">
+        <v>90000</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="8">
+        <f>COUNT(E:E)</f>
+        <v>10</v>
+      </c>
+      <c r="I3" s="8">
+        <f>COUNTIF(D:D, "San Francisco")</f>
+        <v>3</v>
+      </c>
+      <c r="J3" s="8">
+        <f>COUNTIFS(B:B,"Data Analyst",D:D, "San Francisco")</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6">
+        <v>115000</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6">
+        <v>125000</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6">
+        <v>130000</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="6">
+        <v>75000</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6">
+        <v>110000</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="6">
+        <v>118000</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="6">
+        <v>135000</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="6">
+        <v>95000</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CAE6D-E070-4562-86D5-8F8141367035}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,8 +1113,8 @@
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="46" customWidth="1"/>
+    <col min="9" max="9" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="49.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -801,13 +1138,13 @@
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -821,7 +1158,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E2" s="6">
         <v>120000</v>
@@ -833,10 +1170,10 @@
         <v>28</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -859,16 +1196,16 @@
         <v>16</v>
       </c>
       <c r="H3" s="7">
-        <f>SUM(E2:E10)</f>
-        <v>1038000</v>
+        <f>SUM(E:E)</f>
+        <v>1113000</v>
       </c>
       <c r="I3" s="7">
-        <f>SUMIF(D2:D10, "New York", E2:E10)</f>
-        <v>475000</v>
+        <f>SUMIF(D:D, "San Francisco", E:E)</f>
+        <v>350000</v>
       </c>
       <c r="J3" s="7">
-        <f>SUMIFS(E2:E10, D2:D10, "New York", F2:F10, "Senior")</f>
-        <v>115000</v>
+        <f>SUMIFS(E:E, B:B, "Data Analyst", D:D, "San Francisco")</f>
+        <v>215000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -896,7 +1233,7 @@
         <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>10</v>
@@ -909,6 +1246,9 @@
       </c>
       <c r="F5" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -919,7 +1259,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>11</v>
@@ -929,6 +1269,10 @@
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
+      </c>
+      <c r="J6" s="7">
+        <f>SUMIFS(E:E, B:B, "Data Analyst", D:D, "Chicago")</f>
+        <v>170000</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -945,7 +1289,7 @@
         <v>24</v>
       </c>
       <c r="E7" s="6">
-        <v>95000</v>
+        <v>75000</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>16</v>
@@ -988,7 +1332,7 @@
         <v>118000</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -1012,298 +1356,24 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07523D37-B360-4F9E-9C0E-00BA173DC886}">
-  <dimension ref="A1:J21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="B11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6">
-        <v>120000</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="D11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="6">
+        <v>95000</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6">
-        <v>90000</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="8">
-        <f>COUNT(E:E)</f>
-        <v>9</v>
-      </c>
-      <c r="I3" s="8">
-        <f>COUNTIF(D:D, "New York")</f>
-        <v>4</v>
-      </c>
-      <c r="J3" s="8">
-        <f>COUNTIFS(B2:B10,"Data Analyst",D2:D10, "New York")</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="6">
-        <v>115000</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6">
-        <v>125000</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6">
-        <v>130000</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="6">
-        <v>95000</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6">
-        <v>110000</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="6">
-        <v>118000</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="6">
-        <v>135000</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>

--- a/2_Formulas_Functions/4_Math_Function.xlsx
+++ b/2_Formulas_Functions/4_Math_Function.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B736A71-8D98-462C-AC4C-72E7CED3F8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3558D2-FAE4-4A8D-9CEC-5D35CEC302B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,9 +73,6 @@
     <t>R&amp;D</t>
   </si>
   <si>
-    <t>New York</t>
-  </si>
-  <si>
     <t>Mid</t>
   </si>
   <si>
@@ -85,9 +82,6 @@
     <t>Marketing</t>
   </si>
   <si>
-    <t>San Francisco</t>
-  </si>
-  <si>
     <t>Entry</t>
   </si>
   <si>
@@ -112,9 +106,6 @@
     <t>JP006</t>
   </si>
   <si>
-    <t>Chicago</t>
-  </si>
-  <si>
     <t>JP007</t>
   </si>
   <si>
@@ -154,19 +145,28 @@
     <t>Product</t>
   </si>
   <si>
-    <t>Data Analyst Jobs in San Fransisco</t>
-  </si>
-  <si>
-    <t>San Fransisco Jobs</t>
-  </si>
-  <si>
-    <t>Total Salary for Data Analyst Positions in San Fransisco</t>
-  </si>
-  <si>
-    <t>Total Salary for Job Postings in San Francisco</t>
-  </si>
-  <si>
-    <t>Total Salary for Data Analyst Positions in Chicago</t>
+    <t>Chicago, IL</t>
+  </si>
+  <si>
+    <t>San Francisco, CA</t>
+  </si>
+  <si>
+    <t>New York, NY</t>
+  </si>
+  <si>
+    <t>Data Analyst Jobs in San Francisco, CA</t>
+  </si>
+  <si>
+    <t>San Francisco, CA Jobs</t>
+  </si>
+  <si>
+    <t>Total Salary for Job Postings in San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Total Salary for Data Analyst Positions in San Francisco, CA</t>
+  </si>
+  <si>
+    <t>Total Salary for Data Analyst Positions in Chicago, IL</t>
   </si>
 </sst>
 </file>
@@ -214,7 +214,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,8 +227,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -236,31 +242,186 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -545,7 +706,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F11"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,232 +714,232 @@
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="80.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="12" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="10">
+        <v>120000</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="10">
+        <v>90000</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="10">
+        <v>115000</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="10">
+        <v>125000</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="10">
+        <v>130000</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="10">
+        <v>75000</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="10">
+        <v>110000</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="10">
+        <v>118000</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="6">
-        <v>120000</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="B10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="10">
+        <v>135000</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6">
-        <v>90000</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="17">
+        <v>95000</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" s="6">
-        <v>115000</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6">
-        <v>125000</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6">
-        <v>130000</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="6">
-        <v>75000</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6">
-        <v>110000</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="6">
-        <v>118000</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="6">
-        <v>135000</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="6">
-        <v>95000</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -792,7 +953,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F11"/>
+      <selection activeCell="B8" sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,264 +961,264 @@
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="2" max="2" width="23.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="31.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="12" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="E2" s="10">
         <v>120000</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="10">
+        <v>90000</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6">
-        <v>90000</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="H3" s="5">
         <f>COUNT(E:E)</f>
         <v>10</v>
       </c>
-      <c r="I3" s="8">
-        <f>COUNTIF(D:D, "San Francisco")</f>
+      <c r="I3" s="5">
+        <f>COUNTIF(D:D,"San Francisco, CA")</f>
         <v>3</v>
       </c>
-      <c r="J3" s="8">
-        <f>COUNTIFS(B:B,"Data Analyst",D:D, "San Francisco")</f>
+      <c r="J3" s="5">
+        <f>COUNTIFS(B:B,"Data Analyst",D:D,"San Francisco, CA")</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="10">
+        <v>115000</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="10">
+        <v>125000</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="10">
+        <v>130000</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="10">
+        <v>75000</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="10">
+        <v>110000</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="10">
+        <v>118000</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="10">
+        <v>135000</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="17">
+        <v>95000</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" s="6">
-        <v>115000</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6">
-        <v>125000</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6">
-        <v>130000</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="6">
-        <v>75000</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6">
-        <v>110000</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="6">
-        <v>118000</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="6">
-        <v>135000</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="6">
-        <v>95000</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1100,7 +1261,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,271 +1269,271 @@
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="21.140625" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="40.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="53.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="12" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="D2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="10">
         <v>120000</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="10">
+        <v>90000</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6">
-        <v>90000</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="7">
+      <c r="H3" s="4">
         <f>SUM(E:E)</f>
         <v>1113000</v>
       </c>
-      <c r="I3" s="7">
-        <f>SUMIF(D:D, "San Francisco", E:E)</f>
+      <c r="I3" s="4">
+        <f>SUMIF(D:D,"San Francisco, CA",E:E)</f>
         <v>350000</v>
       </c>
-      <c r="J3" s="7">
-        <f>SUMIFS(E:E, B:B, "Data Analyst", D:D, "San Francisco")</f>
+      <c r="J3" s="4">
+        <f>SUMIFS(E:E,B:B,"Data Analyst",D:D, "San Francisco, CA")</f>
         <v>215000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="10">
+        <v>115000</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="10">
+        <v>125000</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="10">
+        <v>130000</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="4">
+        <f>SUMIFS(E:E,B:B,"Data Analyst",D:D,"Chicago, IL")</f>
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="10">
+        <v>75000</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="10">
+        <v>110000</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="10">
+        <v>118000</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="10">
+        <v>135000</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="17">
+        <v>95000</v>
+      </c>
+      <c r="F11" s="18" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" s="6">
-        <v>115000</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6">
-        <v>125000</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6">
-        <v>130000</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="7">
-        <f>SUMIFS(E:E, B:B, "Data Analyst", D:D, "Chicago")</f>
-        <v>170000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="6">
-        <v>75000</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6">
-        <v>110000</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="6">
-        <v>118000</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="6">
-        <v>135000</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="6">
-        <v>95000</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">

--- a/2_Formulas_Functions/4_Math_Function.xlsx
+++ b/2_Formulas_Functions/4_Math_Function.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3558D2-FAE4-4A8D-9CEC-5D35CEC302B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956D71D6-EF23-4257-8210-DE0BCB4870B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -214,18 +214,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -388,14 +382,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -403,7 +392,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -422,6 +411,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -705,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,224 +715,224 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="7">
         <v>120000</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="7">
         <v>90000</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="7">
         <v>115000</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="7">
         <v>125000</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="7">
         <v>130000</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="7">
         <v>75000</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="7">
         <v>110000</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="7">
         <v>118000</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="7">
         <v>135000</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="14">
         <v>95000</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -953,7 +947,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="A1:F11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,28 +959,28 @@
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.28515625" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="34.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1"/>
@@ -1001,223 +995,226 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="7">
         <v>120000</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="17" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="7">
         <v>90000</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="17">
         <f>COUNT(E:E)</f>
         <v>10</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="17">
         <f>COUNTIF(D:D,"San Francisco, CA")</f>
         <v>3</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="17">
         <f>COUNTIFS(B:B,"Data Analyst",D:D,"San Francisco, CA")</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="7">
         <v>115000</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="7">
         <v>125000</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="7">
         <v>130000</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="7">
         <v>75000</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="7">
         <v>110000</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="7">
         <v>118000</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="7">
         <v>135000</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="14">
         <v>95000</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1260,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CAE6D-E070-4562-86D5-8F8141367035}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1279,22 +1276,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="1"/>
@@ -1309,230 +1306,230 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="7">
         <v>120000</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="17" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="7">
         <v>90000</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="18">
         <f>SUM(E:E)</f>
         <v>1113000</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="18">
         <f>SUMIF(D:D,"San Francisco, CA",E:E)</f>
         <v>350000</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="18">
         <f>SUMIFS(E:E,B:B,"Data Analyst",D:D, "San Francisco, CA")</f>
         <v>215000</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="7">
         <v>115000</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="7">
         <v>125000</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="17" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="7">
         <v>130000</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="18">
         <f>SUMIFS(E:E,B:B,"Data Analyst",D:D,"Chicago, IL")</f>
         <v>170000</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="7">
         <v>75000</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="7">
         <v>110000</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="7">
         <v>118000</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="7">
         <v>135000</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="14">
         <v>95000</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="15" t="s">
         <v>11</v>
       </c>
     </row>

--- a/2_Formulas_Functions/4_Math_Function.xlsx
+++ b/2_Formulas_Functions/4_Math_Function.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27920"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SaderPC\Documents\GitHub\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956D71D6-EF23-4257-8210-DE0BCB4870B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F401479-C7CD-4CB9-8AAC-016B58FF0730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18336" windowHeight="9768" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
     <sheet name="COUNT" sheetId="4" r:id="rId2"/>
-    <sheet name="SUMs" sheetId="2" r:id="rId3"/>
+    <sheet name="SUM" sheetId="2" r:id="rId3"/>
+    <sheet name="Other IF-IFS" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="43">
   <si>
     <t>Data Analyst</t>
   </si>
@@ -115,9 +116,6 @@
     <t>JP009</t>
   </si>
   <si>
-    <t>Overall Salary Expenses</t>
-  </si>
-  <si>
     <t>All Jobs</t>
   </si>
   <si>
@@ -154,19 +152,22 @@
     <t>New York, NY</t>
   </si>
   <si>
-    <t>Data Analyst Jobs in San Francisco, CA</t>
-  </si>
-  <si>
-    <t>San Francisco, CA Jobs</t>
-  </si>
-  <si>
-    <t>Total Salary for Job Postings in San Francisco, CA</t>
-  </si>
-  <si>
-    <t>Total Salary for Data Analyst Positions in San Francisco, CA</t>
-  </si>
-  <si>
-    <t>Total Salary for Data Analyst Positions in Chicago, IL</t>
+    <t>Both Conditions</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>MAX</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>IFS</t>
   </si>
 </sst>
 </file>
@@ -376,7 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -411,11 +412,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -699,22 +704,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="8" max="8" width="80.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.578125" customWidth="1"/>
+    <col min="5" max="5" width="13.68359375" customWidth="1"/>
+    <col min="6" max="6" width="18.578125" customWidth="1"/>
+    <col min="8" max="8" width="80.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -736,7 +741,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
@@ -747,7 +752,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="7">
         <v>120000</v>
@@ -756,7 +761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
@@ -767,7 +772,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="7">
         <v>90000</v>
@@ -776,7 +781,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
@@ -787,7 +792,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="7">
         <v>115000</v>
@@ -796,7 +801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
@@ -807,7 +812,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="7">
         <v>125000</v>
@@ -816,7 +821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
@@ -824,10 +829,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="7">
         <v>130000</v>
@@ -836,7 +841,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
@@ -847,7 +852,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="7">
         <v>75000</v>
@@ -856,7 +861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
@@ -867,7 +872,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="7">
         <v>110000</v>
@@ -876,7 +881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
@@ -887,7 +892,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="7">
         <v>118000</v>
@@ -896,7 +901,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
@@ -907,7 +912,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="7">
         <v>135000</v>
@@ -916,18 +921,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="E11" s="14">
         <v>95000</v>
@@ -944,27 +949,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07523D37-B360-4F9E-9C0E-00BA173DC886}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="15.83984375" customWidth="1"/>
+    <col min="2" max="2" width="23.26171875" customWidth="1"/>
+    <col min="3" max="3" width="17.68359375" customWidth="1"/>
+    <col min="4" max="4" width="24.578125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.26171875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.26171875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.3125" customWidth="1"/>
+    <col min="10" max="10" width="15.7890625" customWidth="1"/>
+    <col min="11" max="11" width="16.15625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -984,17 +990,20 @@
         <v>8</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
@@ -1005,7 +1014,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="7">
         <v>120000</v>
@@ -1013,17 +1022,20 @@
       <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
@@ -1034,7 +1046,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="7">
         <v>90000</v>
@@ -1042,20 +1054,24 @@
       <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3">
         <f>COUNT(E:E)</f>
         <v>10</v>
       </c>
-      <c r="I3" s="17">
-        <f>COUNTIF(D:D,"San Francisco, CA")</f>
+      <c r="I3">
+        <f>COUNTIF(D:D,$I$2)</f>
         <v>3</v>
       </c>
-      <c r="J3" s="17">
-        <f>COUNTIFS(B:B,"Data Analyst",D:D,"San Francisco, CA")</f>
+      <c r="J3">
+        <f>COUNTIF(B:B,$J$2)</f>
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIFS(B:B,$J$2,D:D,$I$2)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
@@ -1066,7 +1082,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="7">
         <v>115000</v>
@@ -1074,11 +1090,8 @@
       <c r="F4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
@@ -1089,7 +1102,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="7">
         <v>125000</v>
@@ -1098,7 +1111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
@@ -1106,10 +1119,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="7">
         <v>130000</v>
@@ -1118,7 +1131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
@@ -1129,7 +1142,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="7">
         <v>75000</v>
@@ -1138,7 +1151,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
@@ -1149,7 +1162,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="7">
         <v>110000</v>
@@ -1158,7 +1171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
@@ -1169,7 +1182,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="7">
         <v>118000</v>
@@ -1178,7 +1191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
@@ -1189,7 +1202,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="7">
         <v>135000</v>
@@ -1198,18 +1211,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="E11" s="14">
         <v>95000</v>
@@ -1218,34 +1231,34 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="2"/>
     </row>
   </sheetData>
@@ -1255,27 +1268,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CAE6D-E070-4562-86D5-8F8141367035}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.62890625" customWidth="1"/>
+    <col min="2" max="2" width="21.83984375" customWidth="1"/>
+    <col min="3" max="3" width="20.41796875" customWidth="1"/>
+    <col min="4" max="4" width="21.68359375" customWidth="1"/>
+    <col min="5" max="5" width="21.15625" customWidth="1"/>
+    <col min="6" max="6" width="17.26171875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="24" customWidth="1"/>
-    <col min="9" max="9" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.05078125" customWidth="1"/>
+    <col min="9" max="10" width="17.20703125" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -1295,17 +1308,20 @@
         <v>8</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
@@ -1316,7 +1332,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="7">
         <v>120000</v>
@@ -1327,14 +1343,17 @@
       <c r="H2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="10" t="s">
         <v>12</v>
       </c>
@@ -1345,7 +1364,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E3" s="7">
         <v>90000</v>
@@ -1353,20 +1372,24 @@
       <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="17">
         <f>SUM(E:E)</f>
         <v>1113000</v>
       </c>
-      <c r="I3" s="18">
-        <f>SUMIF(D:D,"San Francisco, CA",E:E)</f>
+      <c r="I3" s="17">
+        <f>SUMIF(D:D,$I$2,E:E)</f>
         <v>350000</v>
       </c>
-      <c r="J3" s="18">
-        <f>SUMIFS(E:E,B:B,"Data Analyst",D:D, "San Francisco, CA")</f>
+      <c r="J3" s="17">
+        <f>SUMIF(B:B,$J$2,E:E)</f>
+        <v>385000</v>
+      </c>
+      <c r="K3" s="17">
+        <f>SUMIFS(E:E,B:B,$J$2,D:D,$I$2)</f>
         <v>215000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10" t="s">
         <v>15</v>
       </c>
@@ -1377,7 +1400,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="7">
         <v>115000</v>
@@ -1386,7 +1409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
@@ -1397,7 +1420,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E5" s="7">
         <v>125000</v>
@@ -1405,11 +1428,8 @@
       <c r="F5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="17" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="10" t="s">
         <v>19</v>
       </c>
@@ -1417,10 +1437,10 @@
         <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="7">
         <v>130000</v>
@@ -1428,12 +1448,9 @@
       <c r="F6" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="18">
-        <f>SUMIFS(E:E,B:B,"Data Analyst",D:D,"Chicago, IL")</f>
-        <v>170000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K6" s="17"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10" t="s">
         <v>21</v>
       </c>
@@ -1444,7 +1461,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="7">
         <v>75000</v>
@@ -1453,7 +1470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
@@ -1464,7 +1481,7 @@
         <v>16</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="7">
         <v>110000</v>
@@ -1473,7 +1490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
@@ -1484,7 +1501,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" s="7">
         <v>118000</v>
@@ -1493,7 +1510,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="10" t="s">
         <v>24</v>
       </c>
@@ -1504,7 +1521,7 @@
         <v>16</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="7">
         <v>135000</v>
@@ -1513,18 +1530,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A11" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="E11" s="14">
         <v>95000</v>
@@ -1533,37 +1550,492 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="B16" s="2"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B56EB1-D20E-44D0-BC06-0B1F6F91D6E2}">
+  <dimension ref="A1:L21"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="15.83984375" customWidth="1"/>
+    <col min="2" max="2" width="23.26171875" customWidth="1"/>
+    <col min="3" max="3" width="17.68359375" customWidth="1"/>
+    <col min="4" max="4" width="24.578125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="17.26171875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.26171875" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="15.3125" customWidth="1"/>
+    <col min="11" max="11" width="15.7890625" customWidth="1"/>
+    <col min="12" max="12" width="16.15625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="7">
+        <v>120000</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="7">
+        <v>90000</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3">
+        <f>COUNT(E:E)</f>
+        <v>10</v>
+      </c>
+      <c r="J3">
+        <f>COUNTIF(D:D,$J$2)</f>
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <f>COUNTIF(B:B,$K$2)</f>
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <f>COUNTIFS(B:B,$K$2,D:D,$J$2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="7">
+        <v>115000</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="19">
+        <f>SUM(E:E)</f>
+        <v>1113000</v>
+      </c>
+      <c r="J4" s="19">
+        <f>SUMIF(D:D,$J$2,E:E)</f>
+        <v>350000</v>
+      </c>
+      <c r="K4" s="19">
+        <f>SUMIF(B:B,$K$2,E:E)</f>
+        <v>385000</v>
+      </c>
+      <c r="L4" s="19">
+        <f>SUMIFS(E:E, B:B,$K$2,D:D,$J$2)</f>
+        <v>215000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="7">
+        <v>125000</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="19">
+        <f>AVERAGE(E:E)</f>
+        <v>111300</v>
+      </c>
+      <c r="J5" s="19">
+        <f>AVERAGEIF(D:D,$J$2,E:E)</f>
+        <v>116666.66666666667</v>
+      </c>
+      <c r="K5" s="19">
+        <f>AVERAGEIF(B:B,$K$2,E:E)</f>
+        <v>96250</v>
+      </c>
+      <c r="L5" s="19">
+        <f>AVERAGEIFS(E:E, B:B,$K$2,D:D,$J$2)</f>
+        <v>107500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="7">
+        <v>130000</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="7">
+        <v>75000</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="19">
+        <f>MIN(E:E)</f>
+        <v>75000</v>
+      </c>
+      <c r="J7" s="19">
+        <f>_xlfn.MINIFS(E:E, D:D,$J$2)</f>
+        <v>90000</v>
+      </c>
+      <c r="K7" s="19">
+        <f>_xlfn.MINIFS(E:E, B:B,$K$2)</f>
+        <v>75000</v>
+      </c>
+      <c r="L7" s="19">
+        <f>_xlfn.MINIFS(E:E, B:B,$K$2,D:D,$J$2)</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="7">
+        <v>110000</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="I8" s="19">
+        <f>MAX(E:E)</f>
+        <v>135000</v>
+      </c>
+      <c r="J8" s="19">
+        <f>_xlfn.MAXIFS(E:E, D:D,$J$2)</f>
+        <v>135000</v>
+      </c>
+      <c r="K8" s="19">
+        <f>_xlfn.MAXIFS(E:E, B:B,$K$2)</f>
+        <v>125000</v>
+      </c>
+      <c r="L8" s="19">
+        <f>_xlfn.MAXIFS(E:E, B:B,$K$2,D:D,$J$2)</f>
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="7">
+        <v>118000</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="7">
+        <v>135000</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A11" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="14">
+        <v>95000</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="2"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="I5:L5">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7:L7">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8:L8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4:L4">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2_Formulas_Functions/4_Math_Function.xlsx
+++ b/2_Formulas_Functions/4_Math_Function.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Mac\Home\Developer\_Courses\Excel\Excel_Data_Analytics_Course\2_Formulas_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F401479-C7CD-4CB9-8AAC-016B58FF0730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304AB95F-FC05-4EDB-A1F3-F52583DFEECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="18336" windowHeight="9768" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="18336" windowHeight="9768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Original" sheetId="1" r:id="rId1"/>
@@ -704,7 +704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -951,7 +951,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07523D37-B360-4F9E-9C0E-00BA173DC886}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -1270,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5CAE6D-E070-4562-86D5-8F8141367035}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1590,7 +1590,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
